--- a/ase-ilb-blueprint/images/nist80066matrix.xlsx
+++ b/ase-ilb-blueprint/images/nist80066matrix.xlsx
@@ -1681,45 +1681,17 @@
     <t>The customer is responsible for establishing and implementing integrity protection policy and procedures.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>This Azure Blueprint architecture deploys and configures resources to encrypt transmitted data. All connections to the SQL database require encryption (SSL/TLS). Redis is configured with non-SSL endpoints disabled.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Does the application gateway configured to restrict traffic to SSL/TLS?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Microsoft implements security measures for the underlying Azure infrastructure in accordance with requirements established by FedRAMP, the DoD Cloud Computing Security Requirements Guide, and other regulatory security frameworks. The customer is responsible for ensuring that sufficient security measures are implemented for their system in Azure and that risks and vulnerabilities are mitigated as appropriate. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[This Azure Blueprint architecture implements a secure locked down implementation of Azure App Service Environment, fronted by a Web Application Firewall. All tiers are segmented into their own Subnets and locked down with network security groups that allow only soecific, SSL access to system endpoints, all other ports and protocls are locked for inbond and outbound communication. The Architecture also implements a OWASP 3.0 security ruleset and a mandatory SSL connection for incoming requests fronted by this WAF/Application Loadbalancer. A FIPS 2 - 2 compliant HSM Key Vault is implemented to store all system specific encryption keys, access tokens, secrets, password and certificates. Access to Azure SQL is locked down for access from application specific endpoints within WebApps]</t>
-    </r>
+    <t>Microsoft implements security measures for the underlying Azure infrastructure in accordance with requirements established by FedRAMP, the DoD Cloud Computing Security Requirements Guide, and other regulatory security frameworks. The customer is responsible for ensuring that sufficient security measures are implemented for their system in Azure and that risks and vulnerabilities are mitigated as appropriate. This Azure Blueprint architecture implements a secure locked down implementation of Azure App Service Environment, fronted by a Web Application Firewall. All tiers are segmented into their own Subnets and locked down with network security groups that allow only specific, SSL access to system endpoints, all other ports and protocls are locked for inbond and outbound communication. The Architecture also implements a OWASP 3.0 security ruleset and a mandatory SSL connection for incoming requests fronted by this WAF/Application Loadbalancer. A FIPS 2 - 2 compliant HSM Key Vault is implemented to store all system specific encryption keys, access tokens, secrets, password and certificates. Access to Azure SQL is locked down for access from application specific endpoints within WebApps.</t>
+  </si>
+  <si>
+    <t>This Azure Blueprint architecture deploys and configures resources to encrypt transmitted data. All connections to the SQL database require encryption (SSL/TLS). Redis is configured with non-SSL endpoints disabled.  All tiers are segmented into their own Subnets and locked down with network security groups that allow only specific, SSL access to system endpoints, all other ports and protocls are locked for inbond and outbound communication. The Architecture also implements a OWASP 3.0 security ruleset and a mandatory SS/TLSL connection for incoming requests fronted by this WAF/Application Loadbalancer. A FIPS 2 - 2 compliant HSM Key Vault is implemented to store all system specific encryption keys, access tokens, secrets, password and certificates. Access to Azure SQL is locked down for access from application specific endpoints within WebApps. Customer is responsible for all SSL certificate configurations as a post deployment step.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1730,12 +1702,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1760,7 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1800,7 +1766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,14 +1775,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2306,7 +2269,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -2322,13 +2285,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2416,7 +2379,7 @@
         <v>198</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>116</v>
@@ -3076,13 +3039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3419,7 +3382,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -3435,13 +3398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="25.75" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -3719,7 +3682,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="187.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
@@ -3735,8 +3698,8 @@
       <c r="E14" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>225</v>
+      <c r="F14" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>167</v>
